--- a/py-utils/workflow/ExcelTemplate/建表模板.xlsx
+++ b/py-utils/workflow/ExcelTemplate/建表模板.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D958BD9-5D83-417E-86BC-0ECCCA7DB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="298"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="298" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -129,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -256,8 +265,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="2"/>
-    <cellStyle name="常规 14 2" xfId="1"/>
+    <cellStyle name="常规 11" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 14 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,25 +543,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.08203125" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5">
+    <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -621,7 +630,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="7" t="str">
-        <f>B3</f>
+        <f t="shared" ref="H3:H8" si="0">B3</f>
         <v>申请单号</v>
       </c>
     </row>
@@ -642,7 +651,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="7" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>申请日期</v>
       </c>
     </row>
@@ -665,7 +674,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="7" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>营销支持活动信息ID</v>
       </c>
     </row>
@@ -688,7 +697,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="7" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>营销支持活动编号</v>
       </c>
     </row>
@@ -711,7 +720,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="7" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>营销支持活动信息明细ID</v>
       </c>
     </row>
@@ -734,7 +743,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="7" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>大区ID</v>
       </c>
     </row>
@@ -744,5 +753,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>